--- a/data/trans_orig/P14C28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E45BAC6-28F2-4A91-BC3E-AC60600C2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9180F766-E813-4CAA-A552-8471DF0B02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2AD4E90-1D28-4BB8-B41B-F5DCA6CC0DE2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBA298F5-AF54-4B41-A6EA-540875D36DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -948,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14654AD8-2481-4EBA-B63F-0D21796992A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7324090-B58E-451B-AFAD-2D78E25A63D6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9180F766-E813-4CAA-A552-8471DF0B02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D92AE1-06A7-4164-BA45-E5D7FE5062D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBA298F5-AF54-4B41-A6EA-540875D36DD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD33278C-D068-4D32-84BE-F14269CDEA5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="167">
-  <si>
-    <t>Población según el tiempo de diagnóstico del artritis en 2015 (Tasa respuesta: 6,06%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="166">
+  <si>
+    <t>Población según el tiempo de diagnóstico del artritis en 2016 (Tasa respuesta: 6,06%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,16 +74,16 @@
     <t>53,17%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>50,49%</t>
+    <t>57,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>72,05%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>46,83%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>15,46%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,51%</t>
+    <t>42,43%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -146,55 +146,55 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>77,09%</t>
+    <t>80,39%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>19,61%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -203,76 +203,73 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>61,96%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>5,45%</t>
@@ -281,94 +278,94 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>62,6%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>17,07%</t>
+    <t>19,78%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,7%</t>
+    <t>11,31%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>8,74%</t>
+    <t>8,8%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -377,163 +374,163 @@
     <t>61,1%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -948,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7324090-B58E-451B-AFAD-2D78E25A63D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4189EA90-DB7D-49B3-8AF8-43F3C55F5990}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1505,7 +1502,7 @@
         <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -1514,13 +1511,13 @@
         <v>103678</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,13 +1532,13 @@
         <v>8032</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1550,13 +1547,13 @@
         <v>25526</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -1565,13 +1562,13 @@
         <v>33558</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1592,7 +1589,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1601,13 +1598,13 @@
         <v>4451</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1616,13 +1613,13 @@
         <v>4451</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1675,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1690,13 +1687,13 @@
         <v>16360</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -1705,13 +1702,13 @@
         <v>47985</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -1720,13 +1717,13 @@
         <v>64345</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,13 +1738,13 @@
         <v>8883</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1756,13 +1753,13 @@
         <v>8895</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -1771,13 +1768,13 @@
         <v>17778</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1789,13 @@
         <v>890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1807,13 +1804,13 @@
         <v>1271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1822,13 +1819,13 @@
         <v>2161</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1881,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1896,13 +1893,13 @@
         <v>16718</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -1911,13 +1908,13 @@
         <v>61819</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -1926,13 +1923,13 @@
         <v>78538</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1944,13 @@
         <v>6593</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -1962,13 +1959,13 @@
         <v>12102</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -1977,13 +1974,13 @@
         <v>18695</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1995,13 @@
         <v>4052</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2013,13 +2010,13 @@
         <v>5110</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2028,13 +2025,13 @@
         <v>9162</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2099,13 @@
         <v>83044</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>218</v>
@@ -2117,13 +2114,13 @@
         <v>248788</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>300</v>
@@ -2132,13 +2129,13 @@
         <v>331833</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2150,13 @@
         <v>28059</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2168,13 +2165,13 @@
         <v>58395</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -2183,13 +2180,13 @@
         <v>86455</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2201,13 @@
         <v>4942</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -2219,13 +2216,13 @@
         <v>15420</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2234,13 +2231,13 @@
         <v>20363</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2293,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
